--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 6-7-2018.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 6-7-2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FF2D4F4D-56AF-42EC-BF7E-54F0D3C14A6B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE2C8311-CFE1-4D21-9C9A-08D7D5773026}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>4*16 u=4 32u32n tp0.0 PBC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>DMRG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DET 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3920,6 +3932,65 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>step 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BU$131:$CB$131</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-8.5547362248763595E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.94285877323637E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1450853574299902E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9934594674462899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9172133449022199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5005065893379201E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6367610756486502E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.20459819929186601</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD7E-42E8-891D-28466F2561B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -4035,6 +4106,64 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DET</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BU$184:$CB$184</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>-0.21641437215227599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1177082532647998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.9067207850167403E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1839331874775599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6309142649259799E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.0258319199024901E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.2710451231856102E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.80358149178289E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2925-49B2-B647-0CB8E968EC2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4046,73 +4175,7 @@
         <c:smooth val="0"/>
         <c:axId val="470898992"/>
         <c:axId val="470899320"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$BU$131:$CB$131</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>-8.5547362248763595E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.94285877323637E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.1450853574299902E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.9934594674462899E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.9172133449022199E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.5005065893379201E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-2.6367610756486502E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="General">
-                        <c:v>0.20459819929186601</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-DD7E-42E8-891D-28466F2561B5}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="470898992"/>
@@ -4186,7 +4249,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5127,6 +5190,122 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA43-4DDE-9BE7-2533F1BB38C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>step 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$178:$Y$178</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25260846754246502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1599992373235106E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.65290244264777E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4092337711578897E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3323551988861302E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6538664446496602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3346703243068199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.253645488362162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3221-4CC7-B665-ED5EB6AEA174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DET 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$233:$Y$233</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32646818390501298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13328011604437501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115191524026081</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4435528872198999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2411749430435797E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1427734162306998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15998723276027299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25260778991334498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC2B-4E0E-8C22-ACDABEC6C5A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5535,42 +5714,7 @@
                 <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AA$177:$AI$177</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="9"/>
-                      <c:pt idx="0">
-                        <c:v>-0.250459345</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7.73E-02</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.80E-02</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-5.66E-02</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5.59E-02</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-1.70E-02</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-7.61E-02</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.251773532</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                  <c:v>step 0</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
@@ -5627,6 +5771,72 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-765B-4841-A041-80AF18BB150C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>DET 20</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AA$232:$AH$232</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>-0.25786263599893899</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.3530478792967896E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.67154928357101E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-5.84148199218439E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.0026470997122099E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.23044104156946E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-7.5011986502159594E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7" formatCode="General">
+                        <c:v>0.25684580971198101</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B43E-4F52-8A1B-C0A4C38599C4}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -6006,6 +6216,122 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2BFB-426F-B265-854CDB10CD01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>step 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BB$177:$BI$177</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>-0.14010787635747299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1532784472245301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3127336530732699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.73149161048537E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8770338173438399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.01167026680934E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1034905676806399E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.14269563810469699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDCD-4E8E-B20F-28A49D0546B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DET 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BB$228:$BI$228</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-9.3038909778494494E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3408421592671701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1812209912420101E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.56578081346602E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1633713200714399E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8590163625633197E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.0308376340148201E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.218939617246181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F41-4F53-9D64-551AF68AF7EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23195,16 +23521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>576261</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>338136</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23231,16 +23557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23555,16 +23881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>490536</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23627,16 +23953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100011</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23663,16 +23989,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>342898</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>157160</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>119060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>205</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23700,15 +24026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>900112</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24071,10 +24397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB226"/>
+  <dimension ref="A1:CL233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CE159" sqref="CE159"/>
+    <sheetView tabSelected="1" topLeftCell="AX31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN64" sqref="BN64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31511,7 +31837,7 @@
         <v>5.6599207100000021E-2</v>
       </c>
     </row>
-    <row r="113" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R113" s="2">
         <v>0.82414103660000004</v>
       </c>
@@ -31544,7 +31870,7 @@
         <v>5.5897460549999972E-2</v>
       </c>
     </row>
-    <row r="114" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R114" s="2">
         <v>0.17715249</v>
       </c>
@@ -31577,7 +31903,7 @@
         <v>5.5578239850000016E-2</v>
       </c>
     </row>
-    <row r="115" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AZ115" s="2">
         <v>0.4186572086</v>
       </c>
@@ -31589,7 +31915,7 @@
         <v>-7.302479395E-2</v>
       </c>
     </row>
-    <row r="116" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R116" t="s">
         <v>28</v>
       </c>
@@ -31607,7 +31933,7 @@
         <v>-7.2393588699999983E-2</v>
       </c>
     </row>
-    <row r="117" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R117" t="s">
         <v>4</v>
       </c>
@@ -31625,7 +31951,7 @@
         <v>-7.2444903250000026E-2</v>
       </c>
     </row>
-    <row r="118" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R118" t="s">
         <v>2</v>
       </c>
@@ -31643,7 +31969,7 @@
         <v>-7.1882425249999993E-2</v>
       </c>
     </row>
-    <row r="119" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R119">
         <v>0.294486225610265</v>
       </c>
@@ -31703,7 +32029,7 @@
         <v>0.10022605169999999</v>
       </c>
     </row>
-    <row r="120" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R120">
         <v>-0.285970662788392</v>
       </c>
@@ -31763,7 +32089,7 @@
         <v>9.9826197950000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R121">
         <v>0.295785068624699</v>
       </c>
@@ -31823,7 +32149,7 @@
         <v>9.9925619999999993E-2</v>
       </c>
     </row>
-    <row r="122" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R122">
         <v>-0.28464651594583601</v>
       </c>
@@ -31883,7 +32209,7 @@
         <v>9.9605058050000028E-2</v>
       </c>
     </row>
-    <row r="123" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AZ123" s="2">
         <v>0.30586043600000001</v>
       </c>
@@ -31895,7 +32221,7 @@
         <v>-0.18995144884999998</v>
       </c>
     </row>
-    <row r="124" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R124" t="s">
         <v>29</v>
       </c>
@@ -31913,7 +32239,7 @@
         <v>-0.18937413090000002</v>
       </c>
     </row>
-    <row r="125" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R125">
         <v>0.32720377223816099</v>
       </c>
@@ -31988,7 +32314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R126">
         <v>-0.32613441237045099</v>
       </c>
@@ -32063,7 +32389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="127" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R127">
         <v>0.32778213803290301</v>
       </c>
@@ -32128,7 +32454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="128" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R128">
         <v>-0.32830659137405799</v>
       </c>
@@ -32297,8 +32623,32 @@
       <c r="CB128" s="1">
         <v>8.7262242252149E-2</v>
       </c>
+      <c r="CE128">
+        <v>-0.19297067916878</v>
+      </c>
+      <c r="CF128" s="1">
+        <v>4.59189151119479E-2</v>
+      </c>
+      <c r="CG128" s="1">
+        <v>-3.56443417579567E-2</v>
+      </c>
+      <c r="CH128" s="1">
+        <v>2.93572193679761E-3</v>
+      </c>
+      <c r="CI128" s="1">
+        <v>-1.8409729354472701E-2</v>
+      </c>
+      <c r="CJ128" s="1">
+        <v>-3.7957405682831902E-3</v>
+      </c>
+      <c r="CK128" s="1">
+        <v>-5.7767994625333899E-2</v>
+      </c>
+      <c r="CL128">
+        <v>0.142194208938382</v>
+      </c>
     </row>
-    <row r="129" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="129" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R129">
         <f>ABS(R128)</f>
         <v>0.32830659137405799</v>
@@ -32451,8 +32801,32 @@
       <c r="CB129">
         <v>0.204734005691806</v>
       </c>
+      <c r="CE129">
+        <v>-0.143496929107162</v>
+      </c>
+      <c r="CF129" s="1">
+        <v>5.7071677663793799E-2</v>
+      </c>
+      <c r="CG129" s="1">
+        <v>4.7831925429481703E-3</v>
+      </c>
+      <c r="CH129" s="1">
+        <v>1.8699143561781598E-2</v>
+      </c>
+      <c r="CI129" s="1">
+        <v>-1.4953054666667E-3</v>
+      </c>
+      <c r="CJ129" s="1">
+        <v>3.4743751396220199E-2</v>
+      </c>
+      <c r="CK129" s="1">
+        <v>-4.6495034639686399E-2</v>
+      </c>
+      <c r="CL129">
+        <v>0.19369868382719199</v>
+      </c>
     </row>
-    <row r="130" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="130" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R130" t="s">
         <v>30</v>
       </c>
@@ -32579,8 +32953,32 @@
       <c r="CB130" s="1">
         <v>8.7621523330280102E-2</v>
       </c>
+      <c r="CE130">
+        <v>-0.193178684741072</v>
+      </c>
+      <c r="CF130" s="1">
+        <v>4.4882009789065702E-2</v>
+      </c>
+      <c r="CG130" s="1">
+        <v>-3.4677572395983597E-2</v>
+      </c>
+      <c r="CH130" s="1">
+        <v>6.2785125084713301E-4</v>
+      </c>
+      <c r="CI130" s="1">
+        <v>-1.79207268553838E-2</v>
+      </c>
+      <c r="CJ130" s="1">
+        <v>-6.1164971727819496E-3</v>
+      </c>
+      <c r="CK130" s="1">
+        <v>-5.6557368097667197E-2</v>
+      </c>
+      <c r="CL130">
+        <v>0.13114504345209299</v>
+      </c>
     </row>
-    <row r="131" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="131" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R131">
         <v>-0.32476285854999998</v>
       </c>
@@ -32749,8 +33147,32 @@
       <c r="CB131">
         <v>0.20459819929186601</v>
       </c>
+      <c r="CE131">
+        <v>-0.12799541565672501</v>
+      </c>
+      <c r="CF131" s="1">
+        <v>5.5472083145311303E-2</v>
+      </c>
+      <c r="CG131" s="1">
+        <v>6.9451983135916297E-3</v>
+      </c>
+      <c r="CH131" s="1">
+        <v>1.85181847163602E-2</v>
+      </c>
+      <c r="CI131" s="1">
+        <v>-2.7868191185466099E-3</v>
+      </c>
+      <c r="CJ131" s="1">
+        <v>3.5847980243882402E-2</v>
+      </c>
+      <c r="CK131" s="1">
+        <v>-4.6554857557165902E-2</v>
+      </c>
+      <c r="CL131">
+        <v>0.192380050393547</v>
+      </c>
     </row>
-    <row r="132" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="132" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R132">
         <v>0.32476295235000002</v>
       </c>
@@ -32832,7 +33254,7 @@
         <v>0.25099901329670399</v>
       </c>
     </row>
-    <row r="133" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="133" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R133">
         <v>-0.32476286310000002</v>
       </c>
@@ -32897,7 +33319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="134" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R134">
         <v>0.32476292330000001</v>
       </c>
@@ -33066,8 +33488,32 @@
       <c r="CB134">
         <v>0.16523291498187201</v>
       </c>
+      <c r="CE134">
+        <v>-0.18725545409325201</v>
+      </c>
+      <c r="CF134" s="1">
+        <v>5.25271618313045E-2</v>
+      </c>
+      <c r="CG134" s="1">
+        <v>-3.0811932752511099E-2</v>
+      </c>
+      <c r="CH134" s="1">
+        <v>5.9643349595667403E-3</v>
+      </c>
+      <c r="CI134" s="1">
+        <v>-1.8228371706632399E-2</v>
+      </c>
+      <c r="CJ134" s="1">
+        <v>5.9147956031638804E-3</v>
+      </c>
+      <c r="CK134" s="1">
+        <v>-5.9022653884341802E-2</v>
+      </c>
+      <c r="CL134">
+        <v>0.155345878958631</v>
+      </c>
     </row>
-    <row r="135" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="135" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R135">
         <f>ABS(R134)</f>
         <v>0.32476292330000001</v>
@@ -33252,8 +33698,32 @@
       <c r="CB135">
         <v>0.17771690762801601</v>
       </c>
+      <c r="CE135">
+        <v>-0.154418723371888</v>
+      </c>
+      <c r="CF135" s="1">
+        <v>5.99212733404429E-2</v>
+      </c>
+      <c r="CG135" s="1">
+        <v>-5.7933021216453598E-3</v>
+      </c>
+      <c r="CH135" s="1">
+        <v>1.6902181633546301E-2</v>
+      </c>
+      <c r="CI135" s="1">
+        <v>-3.0930239697471401E-3</v>
+      </c>
+      <c r="CJ135" s="1">
+        <v>2.9802787019686899E-2</v>
+      </c>
+      <c r="CK135" s="1">
+        <v>-4.99259562929961E-2</v>
+      </c>
+      <c r="CL135">
+        <v>0.186696053239954</v>
+      </c>
     </row>
-    <row r="136" spans="18:80" x14ac:dyDescent="0.2">
+    <row r="136" spans="18:90" x14ac:dyDescent="0.2">
       <c r="R136" t="s">
         <v>30</v>
       </c>
@@ -33380,8 +33850,32 @@
       <c r="CB136">
         <v>0.16616518115767301</v>
       </c>
+      <c r="CE136">
+        <v>-0.18702373270595801</v>
+      </c>
+      <c r="CF136" s="1">
+        <v>5.19530981130924E-2</v>
+      </c>
+      <c r="CG136" s="1">
+        <v>-3.1400205167249201E-2</v>
+      </c>
+      <c r="CH136" s="1">
+        <v>6.5525456475868903E-3</v>
+      </c>
+      <c r="CI136" s="1">
+        <v>-1.7553058448462101E-2</v>
+      </c>
+      <c r="CJ136" s="1">
+        <v>5.5073965747253701E-3</v>
+      </c>
+      <c r="CK136" s="1">
+        <v>-5.78552645756805E-2</v>
+      </c>
+      <c r="CL136">
+        <v>0.15336885115604801</v>
+      </c>
     </row>
-    <row r="137" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R137" s="2">
         <v>0.17590714120000001</v>
       </c>
@@ -33522,8 +34016,32 @@
       <c r="CB137">
         <v>0.178084265860948</v>
       </c>
+      <c r="CE137">
+        <v>-0.15344921999431499</v>
+      </c>
+      <c r="CF137" s="1">
+        <v>5.8772873026972199E-2</v>
+      </c>
+      <c r="CG137" s="1">
+        <v>-6.5222979577834097E-3</v>
+      </c>
+      <c r="CH137" s="1">
+        <v>1.7523377949767899E-2</v>
+      </c>
+      <c r="CI137" s="1">
+        <v>-8.6373827831870906E-3</v>
+      </c>
+      <c r="CJ137" s="1">
+        <v>3.1167797595523201E-2</v>
+      </c>
+      <c r="CK137" s="1">
+        <v>-5.2827404818284997E-2</v>
+      </c>
+      <c r="CL137">
+        <v>0.18589757799401499</v>
+      </c>
     </row>
-    <row r="138" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R138" s="2">
         <v>0.82543296060000004</v>
       </c>
@@ -33577,7 +34095,7 @@
         <v>0.261846321744369</v>
       </c>
     </row>
-    <row r="139" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R139" s="2">
         <v>0.17590718459999999</v>
       </c>
@@ -33599,7 +34117,7 @@
         <v>0.19059670350000002</v>
       </c>
     </row>
-    <row r="140" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R140" s="2">
         <v>0.8254329721</v>
       </c>
@@ -33621,7 +34139,7 @@
         <v>0.19084940289999999</v>
       </c>
     </row>
-    <row r="141" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R141" s="2">
         <v>0.73338496949999998</v>
       </c>
@@ -33646,7 +34164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R142" s="2">
         <v>0.26569390339999999</v>
       </c>
@@ -33692,7 +34210,7 @@
         <v>-0.21548630065000002</v>
       </c>
     </row>
-    <row r="143" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R143" s="2">
         <v>0.73338494519999997</v>
       </c>
@@ -33738,7 +34256,7 @@
         <v>-0.21505263835000002</v>
       </c>
     </row>
-    <row r="144" spans="18:80" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="18:90" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R144" s="2">
         <v>0.26569422669999998</v>
       </c>
@@ -35163,7 +35681,7 @@
         <v>-0.21548630065000002</v>
       </c>
     </row>
-    <row r="177" spans="9:75" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="9:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="I177">
         <v>-0.28564794291126</v>
       </c>
@@ -35319,7 +35837,71 @@
         <v>-0.21505263835000002</v>
       </c>
     </row>
-    <row r="178" spans="9:75" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="9:80" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R178">
+        <f>ABS(R177)</f>
+        <v>0.25260846754246502</v>
+      </c>
+      <c r="S178">
+        <f t="shared" ref="S178:Y178" si="14">ABS(S177)</f>
+        <v>8.1599992373235106E-2</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="14"/>
+        <v>1.65290244264777E-2</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="14"/>
+        <v>5.4092337711578897E-2</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="14"/>
+        <v>5.3323551988861302E-2</v>
+      </c>
+      <c r="W178">
+        <f t="shared" si="14"/>
+        <v>1.6538664446496602E-2</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="14"/>
+        <v>8.3346703243068199E-2</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="14"/>
+        <v>0.253645488362162</v>
+      </c>
+      <c r="AA178">
+        <f>ABS(AA177)</f>
+        <v>0.25045934454727298</v>
+      </c>
+      <c r="AB178">
+        <f t="shared" ref="AB178:AH178" si="15">ABS(AB177)</f>
+        <v>7.7261623912324107E-2</v>
+      </c>
+      <c r="AC178">
+        <f t="shared" si="15"/>
+        <v>1.8001516743004799E-2</v>
+      </c>
+      <c r="AD178">
+        <f t="shared" si="15"/>
+        <v>5.65808013772287E-2</v>
+      </c>
+      <c r="AE178">
+        <f t="shared" si="15"/>
+        <v>5.5897429098090499E-2</v>
+      </c>
+      <c r="AF178">
+        <f t="shared" si="15"/>
+        <v>1.69932546350063E-2</v>
+      </c>
+      <c r="AG178">
+        <f t="shared" si="15"/>
+        <v>7.6129673762425895E-2</v>
+      </c>
+      <c r="AH178">
+        <f t="shared" si="15"/>
+        <v>0.25177353200101299</v>
+      </c>
       <c r="BU178" s="2">
         <v>0.28977902830000002</v>
       </c>
@@ -35331,7 +35913,7 @@
         <v>-0.21496570370000001</v>
       </c>
     </row>
-    <row r="179" spans="9:75" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="179" spans="9:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="I179" t="s">
         <v>43</v>
       </c>
@@ -35361,7 +35943,7 @@
         <v>-0.21512903135</v>
       </c>
     </row>
-    <row r="180" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="180" spans="9:80" x14ac:dyDescent="0.2">
       <c r="I180">
         <v>0.328692921665098</v>
       </c>
@@ -35507,7 +36089,7 @@
         <v>0.115146508963116</v>
       </c>
     </row>
-    <row r="181" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="181" spans="9:80" x14ac:dyDescent="0.2">
       <c r="I181">
         <v>-0.32708242770433998</v>
       </c>
@@ -35652,8 +36234,11 @@
       <c r="BI181">
         <v>0.21008225707078801</v>
       </c>
+      <c r="BU181" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="182" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="182" spans="9:80" x14ac:dyDescent="0.2">
       <c r="I182">
         <v>0.32611812225718001</v>
       </c>
@@ -35798,8 +36383,32 @@
       <c r="BI182">
         <v>0.11444866787928699</v>
       </c>
+      <c r="BU182">
+        <v>-0.21541427409722</v>
+      </c>
+      <c r="BV182" s="1">
+        <v>2.1547974537753999E-2</v>
+      </c>
+      <c r="BW182" s="1">
+        <v>-5.0195657574342897E-2</v>
+      </c>
+      <c r="BX182" s="1">
+        <v>-2.16637845469024E-2</v>
+      </c>
+      <c r="BY182" s="1">
+        <v>-2.6873017863947E-2</v>
+      </c>
+      <c r="BZ182" s="1">
+        <v>-4.1196157573496699E-2</v>
+      </c>
+      <c r="CA182" s="1">
+        <v>-5.3835555562292303E-2</v>
+      </c>
+      <c r="CB182" s="1">
+        <v>8.9267019174333898E-2</v>
+      </c>
     </row>
-    <row r="183" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="183" spans="9:80" x14ac:dyDescent="0.2">
       <c r="I183">
         <v>-0.32816888801578198</v>
       </c>
@@ -35944,70 +36553,94 @@
       <c r="BI183">
         <v>0.209541522880134</v>
       </c>
+      <c r="BU183" s="1">
+        <v>-8.8042935635067904E-2</v>
+      </c>
+      <c r="BV183" s="1">
+        <v>5.2329105233900303E-2</v>
+      </c>
+      <c r="BW183" s="1">
+        <v>4.16510428959143E-2</v>
+      </c>
+      <c r="BX183" s="1">
+        <v>2.6030876416722099E-2</v>
+      </c>
+      <c r="BY183" s="1">
+        <v>2.15738157595648E-2</v>
+      </c>
+      <c r="BZ183" s="1">
+        <v>5.0074458649432399E-2</v>
+      </c>
+      <c r="CA183" s="1">
+        <v>-2.1764841301263799E-2</v>
+      </c>
+      <c r="CB183">
+        <v>0.215327936414664</v>
+      </c>
     </row>
-    <row r="184" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="184" spans="9:80" x14ac:dyDescent="0.2">
       <c r="I184">
         <f>ABS(I183)</f>
         <v>0.32816888801578198</v>
       </c>
       <c r="J184">
-        <f t="shared" ref="J184:Y184" si="14">ABS(J183)</f>
+        <f t="shared" ref="J184:Y184" si="16">ABS(J183)</f>
         <v>0.241145486330543</v>
       </c>
       <c r="K184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23229425720454</v>
       </c>
       <c r="L184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.224138613773153</v>
       </c>
       <c r="M184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.22791819291936499</v>
       </c>
       <c r="N184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23455518855398999</v>
       </c>
       <c r="O184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23969818300773801</v>
       </c>
       <c r="P184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.328409510057036</v>
       </c>
       <c r="R184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.32688384936604498</v>
       </c>
       <c r="S184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23708802372673801</v>
       </c>
       <c r="T184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.22772455704542899</v>
       </c>
       <c r="U184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.22455304702711601</v>
       </c>
       <c r="V184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.22287140321621299</v>
       </c>
       <c r="W184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.225642973723964</v>
       </c>
       <c r="X184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.23664068580846601</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.32802270112889798</v>
       </c>
       <c r="AA184">
@@ -36015,42 +36648,90 @@
         <v>0.27069715379482101</v>
       </c>
       <c r="AB184">
-        <f t="shared" ref="AB184:AH184" si="15">ABS(AB183)</f>
+        <f t="shared" ref="AB184:AH184" si="17">ABS(AB183)</f>
         <v>0.15565396609264201</v>
       </c>
       <c r="AC184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.59016510254933E-2</v>
       </c>
       <c r="AD184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.3254484139765797E-2</v>
       </c>
       <c r="AE184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.5174684753347396E-3</v>
       </c>
       <c r="AF184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.5042963730787897E-2</v>
       </c>
       <c r="AG184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.137489001330278</v>
       </c>
       <c r="AH184">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.31513761685340902</v>
       </c>
       <c r="BG184" s="1"/>
+      <c r="BU184">
+        <v>-0.21641437215227599</v>
+      </c>
+      <c r="BV184" s="1">
+        <v>2.1177082532647998E-2</v>
+      </c>
+      <c r="BW184" s="1">
+        <v>-4.9067207850167403E-2</v>
+      </c>
+      <c r="BX184" s="1">
+        <v>-2.1839331874775599E-2</v>
+      </c>
+      <c r="BY184" s="1">
+        <v>-2.6309142649259799E-2</v>
+      </c>
+      <c r="BZ184" s="1">
+        <v>-4.0258319199024901E-2</v>
+      </c>
+      <c r="CA184" s="1">
+        <v>-5.2710451231856102E-2</v>
+      </c>
+      <c r="CB184" s="1">
+        <v>8.80358149178289E-2</v>
+      </c>
     </row>
-    <row r="185" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="185" spans="9:80" x14ac:dyDescent="0.2">
       <c r="BB185" t="s">
         <v>51</v>
       </c>
       <c r="BG185" s="1"/>
+      <c r="BU185" s="1">
+        <v>-8.8483574240691004E-2</v>
+      </c>
+      <c r="BV185" s="1">
+        <v>5.2064954551173701E-2</v>
+      </c>
+      <c r="BW185" s="1">
+        <v>4.2854549928753302E-2</v>
+      </c>
+      <c r="BX185" s="1">
+        <v>2.5070223013076001E-2</v>
+      </c>
+      <c r="BY185" s="1">
+        <v>2.2241387111037601E-2</v>
+      </c>
+      <c r="BZ185" s="1">
+        <v>5.0034513161966901E-2</v>
+      </c>
+      <c r="CA185" s="1">
+        <v>-2.1247793366569501E-2</v>
+      </c>
+      <c r="CB185">
+        <v>0.216035662420477</v>
+      </c>
     </row>
-    <row r="186" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="186" spans="9:80" x14ac:dyDescent="0.2">
       <c r="BB186">
         <v>9.0512757849999986E-2</v>
       </c>
@@ -36076,7 +36757,7 @@
         <v>-0.22443985115000001</v>
       </c>
     </row>
-    <row r="187" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="187" spans="9:80" x14ac:dyDescent="0.2">
       <c r="BB187">
         <v>0.22635594680000001</v>
       </c>
@@ -36102,7 +36783,7 @@
         <v>-9.0601727150000005E-2</v>
       </c>
     </row>
-    <row r="188" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="188" spans="9:80" x14ac:dyDescent="0.2">
       <c r="BB188">
         <v>9.1107190899999996E-2</v>
       </c>
@@ -36128,7 +36809,7 @@
         <v>-0.2250229017</v>
       </c>
     </row>
-    <row r="189" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="189" spans="9:80" x14ac:dyDescent="0.2">
       <c r="R189" t="s">
         <v>49</v>
       </c>
@@ -36160,7 +36841,7 @@
         <v>-8.9924318400000008E-2</v>
       </c>
     </row>
-    <row r="190" spans="9:75" x14ac:dyDescent="0.2">
+    <row r="190" spans="9:80" x14ac:dyDescent="0.2">
       <c r="R190">
         <v>0.65054825569999997</v>
       </c>
@@ -36214,35 +36895,35 @@
         <v>-9.1107190899999996E-2</v>
       </c>
       <c r="BC190">
-        <f t="shared" ref="BC190:BI190" si="16">-1*BC188</f>
+        <f t="shared" ref="BC190:BI190" si="18">-1*BC188</f>
         <v>5.4176214099999981E-2</v>
       </c>
       <c r="BD190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.0840462750000009E-2</v>
       </c>
       <c r="BE190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.7371287150000007E-2</v>
       </c>
       <c r="BF190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.4363174250000008E-2</v>
       </c>
       <c r="BG190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.3401316799999987E-2</v>
       </c>
       <c r="BH190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.9116252899999964E-2</v>
       </c>
       <c r="BI190">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.2250229017</v>
       </c>
     </row>
-    <row r="191" spans="9:75" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="9:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R191">
         <v>0.65054851850000006</v>
       </c>
@@ -36302,7 +36983,7 @@
         <v>9.0512757849999986E-2</v>
       </c>
     </row>
-    <row r="192" spans="9:75" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="9:80" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R192">
         <v>0.65054816319999997</v>
       </c>
@@ -36358,7 +37039,7 @@
         <v>0.27297783079999999</v>
       </c>
       <c r="BD192">
-        <f t="shared" ref="BD192:BD222" si="17">(BB192-BC192)/2</f>
+        <f t="shared" ref="BD192:BD222" si="19">(BB192-BC192)/2</f>
         <v>0.22635594680000001</v>
       </c>
     </row>
@@ -36418,7 +37099,7 @@
         <v>0.40840877209999998</v>
       </c>
       <c r="BD193">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.1107190899999996E-2</v>
       </c>
     </row>
@@ -36428,32 +37109,64 @@
         <v>0.32527417325000002</v>
       </c>
       <c r="S194">
-        <f t="shared" ref="S194:Y194" si="18">S193/2</f>
+        <f t="shared" ref="S194:Y194" si="20">S193/2</f>
         <v>0.23006686840000001</v>
       </c>
       <c r="T194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.21718321934999998</v>
       </c>
       <c r="U194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.20762461739999999</v>
       </c>
       <c r="V194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.20762406220000001</v>
       </c>
       <c r="W194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.21718162495000001</v>
       </c>
       <c r="X194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.23006382684999999</v>
       </c>
       <c r="Y194">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.32526731334999998</v>
+      </c>
+      <c r="AA194">
+        <f>ABS(AA193)</f>
+        <v>0.28568181125000003</v>
+      </c>
+      <c r="AB194">
+        <f t="shared" ref="AB194:AH194" si="21">ABS(AB193)</f>
+        <v>0.13340363835000002</v>
+      </c>
+      <c r="AC194">
+        <f t="shared" si="21"/>
+        <v>4.6479554600000028E-2</v>
+      </c>
+      <c r="AD194">
+        <f t="shared" si="21"/>
+        <v>2.014559600000021E-3</v>
+      </c>
+      <c r="AE194">
+        <f t="shared" si="21"/>
+        <v>2.0164237000000196E-3</v>
+      </c>
+      <c r="AF194">
+        <f t="shared" si="21"/>
+        <v>4.6472494949999998E-2</v>
+      </c>
+      <c r="AG194">
+        <f t="shared" si="21"/>
+        <v>0.13337826279999998</v>
+      </c>
+      <c r="AH194">
+        <f t="shared" si="21"/>
+        <v>0.28560754664999999</v>
       </c>
       <c r="BB194" s="2">
         <v>0.72486793900000002</v>
@@ -36462,7 +37175,7 @@
         <v>0.27347542790000001</v>
       </c>
       <c r="BD194">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.22569625555</v>
       </c>
     </row>
@@ -36494,7 +37207,7 @@
         <v>0.53593854060000001</v>
       </c>
       <c r="BD195">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.4306168749999995E-2</v>
       </c>
     </row>
@@ -36506,7 +37219,7 @@
         <v>0.1758225293</v>
       </c>
       <c r="T196">
-        <f t="shared" ref="T196:T226" si="19">ABS(R196-S196)</f>
+        <f t="shared" ref="T196:T226" si="22">ABS(R196-S196)</f>
         <v>0.65054851850000006</v>
       </c>
       <c r="AA196" s="2">
@@ -36516,7 +37229,7 @@
         <v>0.2224182931</v>
       </c>
       <c r="AC196">
-        <f t="shared" ref="AC196:AC226" si="20">(AA196-AB196)/2</f>
+        <f t="shared" ref="AC196:AC226" si="23">(AA196-AB196)/2</f>
         <v>0.28568332274999997</v>
       </c>
       <c r="BB196" s="2">
@@ -36526,7 +37239,7 @@
         <v>0.51829123290000001</v>
       </c>
       <c r="BD196">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.9156756100000005E-2</v>
       </c>
     </row>
@@ -36538,7 +37251,7 @@
         <v>0.82637093849999999</v>
       </c>
       <c r="T197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.65054816319999997</v>
       </c>
       <c r="AA197" s="2">
@@ -36548,7 +37261,7 @@
         <v>0.79378296510000002</v>
       </c>
       <c r="AC197">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.2856814707</v>
       </c>
       <c r="BB197" s="2">
@@ -36558,7 +37271,7 @@
         <v>0.53596366299999998</v>
       </c>
       <c r="BD197">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.4176214099999981E-2</v>
       </c>
     </row>
@@ -36570,7 +37283,7 @@
         <v>0.17582268349999999</v>
       </c>
       <c r="T198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.65054834650000004</v>
       </c>
       <c r="AA198" s="2">
@@ -36580,7 +37293,7 @@
         <v>0.2224194931</v>
       </c>
       <c r="AC198">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.28568181125000003</v>
       </c>
       <c r="BB198" s="2">
@@ -36590,7 +37303,7 @@
         <v>0.51874695420000005</v>
       </c>
       <c r="BD198">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.9779366800000031E-2</v>
       </c>
     </row>
@@ -36602,7 +37315,7 @@
         <v>0.2691512452</v>
       </c>
       <c r="T199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46013419960000002</v>
       </c>
       <c r="AA199" s="2">
@@ -36612,7 +37325,7 @@
         <v>0.36755002250000002</v>
       </c>
       <c r="AC199">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13340334924999997</v>
       </c>
       <c r="BB199" s="2">
@@ -36622,7 +37335,7 @@
         <v>0.57268957369999995</v>
       </c>
       <c r="BD199">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.0648759849999975E-2</v>
       </c>
     </row>
@@ -36634,7 +37347,7 @@
         <v>0.72928580430000001</v>
       </c>
       <c r="T200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46013481630000003</v>
       </c>
       <c r="AA200" s="2">
@@ -36644,7 +37357,7 @@
         <v>0.63435915899999995</v>
       </c>
       <c r="AC200">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.13340520439999998</v>
       </c>
       <c r="BB200" s="2">
@@ -36654,7 +37367,7 @@
         <v>0.45205643470000001</v>
       </c>
       <c r="BD200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.365231614999999E-2</v>
       </c>
     </row>
@@ -36666,7 +37379,7 @@
         <v>0.26915175470000002</v>
       </c>
       <c r="T201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46013360629999994</v>
       </c>
       <c r="AA201" s="2">
@@ -36676,7 +37389,7 @@
         <v>0.3675490998</v>
       </c>
       <c r="AC201">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13340566855</v>
       </c>
       <c r="BB201" s="2">
@@ -36686,7 +37399,7 @@
         <v>0.57277691829999999</v>
       </c>
       <c r="BD201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.0840462750000009E-2</v>
       </c>
     </row>
@@ -36698,7 +37411,7 @@
         <v>0.72928537360000001</v>
       </c>
       <c r="T202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46013373680000003</v>
       </c>
       <c r="AA202" s="2">
@@ -36708,7 +37421,7 @@
         <v>0.63435844870000002</v>
       </c>
       <c r="AC202">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.13340363835000002</v>
       </c>
       <c r="BB202" s="2">
@@ -36718,7 +37431,7 @@
         <v>0.45195330509999998</v>
       </c>
       <c r="BD202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.348740350000003E-2</v>
       </c>
     </row>
@@ -36730,7 +37443,7 @@
         <v>0.7169623477</v>
       </c>
       <c r="T203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436700010000001</v>
       </c>
       <c r="AA203" s="2">
@@ -36740,7 +37453,7 @@
         <v>0.54522973399999997</v>
       </c>
       <c r="AC203">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-4.6479361599999991E-2</v>
       </c>
       <c r="BB203" s="2">
@@ -36750,7 +37463,7 @@
         <v>0.51149207689999998</v>
       </c>
       <c r="BD203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.7789531300000003E-2</v>
       </c>
     </row>
@@ -36762,7 +37475,7 @@
         <v>0.28259481939999997</v>
       </c>
       <c r="T204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436744800000004</v>
       </c>
       <c r="AA204" s="2">
@@ -36772,7 +37485,7 @@
         <v>0.45226989410000001</v>
       </c>
       <c r="AC204">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.6478092900000018E-2</v>
       </c>
       <c r="BB204" s="2">
@@ -36782,7 +37495,7 @@
         <v>0.4824009574</v>
       </c>
       <c r="BD204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.4449493450000026E-2</v>
       </c>
     </row>
@@ -36794,7 +37507,7 @@
         <v>0.71696116970000001</v>
       </c>
       <c r="T205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436623060000001</v>
       </c>
       <c r="AA205" s="2">
@@ -36804,7 +37517,7 @@
         <v>0.54522433800000003</v>
       </c>
       <c r="AC205">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-4.6481655350000012E-2</v>
       </c>
       <c r="BB205" s="2">
@@ -36814,7 +37527,7 @@
         <v>0.51064394790000001</v>
       </c>
       <c r="BD205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.7371287150000007E-2</v>
       </c>
     </row>
@@ -36826,7 +37539,7 @@
         <v>0.28259398699999999</v>
       </c>
       <c r="T206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436643869999997</v>
       </c>
       <c r="AA206" s="2">
@@ -36836,7 +37549,7 @@
         <v>0.4522544771</v>
       </c>
       <c r="AC206">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.6479554600000028E-2</v>
       </c>
       <c r="BB206" s="2">
@@ -36846,7 +37559,7 @@
         <v>0.48268257390000002</v>
       </c>
       <c r="BD206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.335898599999997E-2</v>
       </c>
     </row>
@@ -36858,7 +37571,7 @@
         <v>0.2922785014</v>
       </c>
       <c r="T207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524961380000003</v>
       </c>
       <c r="AA207" s="2">
@@ -36868,7 +37581,7 @@
         <v>0.49014921929999999</v>
       </c>
       <c r="AC207">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0167560500000126E-3</v>
       </c>
       <c r="BB207" s="2">
@@ -36878,7 +37591,7 @@
         <v>0.5293463772</v>
       </c>
       <c r="BD207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.3398479100000008E-2</v>
       </c>
     </row>
@@ -36890,7 +37603,7 @@
         <v>0.70752690920000005</v>
       </c>
       <c r="T208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524956840000005</v>
       </c>
       <c r="AA208" s="2">
@@ -36900,7 +37613,7 @@
         <v>0.4941654875</v>
       </c>
       <c r="AC208">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-2.0146434499999921E-3</v>
       </c>
       <c r="BB208" s="2">
@@ -36910,7 +37623,7 @@
         <v>0.45526386000000002</v>
       </c>
       <c r="BD208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.731492509999997E-2</v>
       </c>
     </row>
@@ -36922,7 +37635,7 @@
         <v>0.29227642190000003</v>
       </c>
       <c r="T209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524892329999996</v>
       </c>
       <c r="AA209" s="2">
@@ -36932,7 +37645,7 @@
         <v>0.49011823180000003</v>
       </c>
       <c r="AC209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0146465499999988E-3</v>
       </c>
       <c r="BB209" s="2">
@@ -36942,7 +37655,7 @@
         <v>0.52994841920000002</v>
       </c>
       <c r="BD209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.4363174250000008E-2</v>
       </c>
     </row>
@@ -36954,7 +37667,7 @@
         <v>0.70752420829999996</v>
       </c>
       <c r="T210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524923479999998</v>
       </c>
       <c r="AA210" s="2">
@@ -36964,7 +37677,7 @@
         <v>0.49413112860000002</v>
       </c>
       <c r="AC210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-2.014559600000021E-3</v>
       </c>
       <c r="BB210" s="2">
@@ -36974,7 +37687,7 @@
         <v>0.45424947310000002</v>
       </c>
       <c r="BD210">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.7717644949999981E-2</v>
       </c>
     </row>
@@ -36986,7 +37699,7 @@
         <v>0.70752375850000004</v>
       </c>
       <c r="T211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524872760000003</v>
       </c>
       <c r="AA211" s="2">
@@ -36996,7 +37709,7 @@
         <v>0.49413068199999999</v>
       </c>
       <c r="AC211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-2.0144051000000052E-3</v>
       </c>
       <c r="BB211" s="2">
@@ -37006,7 +37719,7 @@
         <v>0.55678265549999995</v>
       </c>
       <c r="BD211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.3307693299999986E-2</v>
       </c>
     </row>
@@ -37018,7 +37731,7 @@
         <v>0.2922738386</v>
       </c>
       <c r="T212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524824090000001</v>
       </c>
       <c r="AA212" s="2">
@@ -37028,7 +37741,7 @@
         <v>0.49008076900000003</v>
       </c>
       <c r="AC212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0144984499999852E-3</v>
       </c>
       <c r="BB212" s="2">
@@ -37038,7 +37751,7 @@
         <v>0.46882260479999999</v>
       </c>
       <c r="BD212">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0659254700000017E-2</v>
       </c>
     </row>
@@ -37050,7 +37763,7 @@
         <v>0.70752068690000003</v>
       </c>
       <c r="T213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524835990000003</v>
       </c>
       <c r="AA213" s="2">
@@ -37060,7 +37773,7 @@
         <v>0.49408952290000002</v>
       </c>
       <c r="AC213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-2.0143236500000106E-3</v>
       </c>
       <c r="BB213" s="2">
@@ -37070,7 +37783,7 @@
         <v>0.55632159999999997</v>
       </c>
       <c r="BD213">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-5.3401316799999987E-2</v>
       </c>
     </row>
@@ -37082,7 +37795,7 @@
         <v>0.29227136799999998</v>
       </c>
       <c r="T214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.41524812440000003</v>
       </c>
       <c r="AA214" s="2">
@@ -37092,7 +37805,7 @@
         <v>0.49004506549999999</v>
       </c>
       <c r="AC214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0164237000000196E-3</v>
       </c>
       <c r="BB214" s="2">
@@ -37102,7 +37815,7 @@
         <v>0.46850864009999998</v>
       </c>
       <c r="BD214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.0436483350000033E-2</v>
       </c>
     </row>
@@ -37114,7 +37827,7 @@
         <v>0.282587282</v>
       </c>
       <c r="T215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436343780000003</v>
       </c>
       <c r="AA215" s="2">
@@ -37124,7 +37837,7 @@
         <v>0.45215429709999999</v>
       </c>
       <c r="AC215">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.6473923650000026E-2</v>
       </c>
       <c r="BB215" s="2">
@@ -37134,7 +37847,7 @@
         <v>0.47621453229999999</v>
       </c>
       <c r="BD215">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9708774950000008E-2</v>
       </c>
     </row>
@@ -37146,7 +37859,7 @@
         <v>0.71694976190000004</v>
       </c>
       <c r="T216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436323600000004</v>
       </c>
       <c r="AA216" s="2">
@@ -37156,7 +37869,7 @@
         <v>0.54509216890000001</v>
       </c>
       <c r="AC216">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-4.6475703600000001E-2</v>
       </c>
       <c r="BB216" s="2">
@@ -37166,7 +37879,7 @@
         <v>0.42483043609999999</v>
       </c>
       <c r="BD216">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.3887184150000017E-2</v>
       </c>
     </row>
@@ -37178,7 +37891,7 @@
         <v>0.28258527010000001</v>
       </c>
       <c r="T217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436402019999998</v>
       </c>
       <c r="AA217" s="2">
@@ -37188,7 +37901,7 @@
         <v>0.4521359217</v>
       </c>
       <c r="AC217">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4.6471670800000003E-2</v>
       </c>
       <c r="BB217" s="2">
@@ -37198,7 +37911,7 @@
         <v>0.47688309750000002</v>
       </c>
       <c r="BD217">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9116252899999964E-2</v>
       </c>
     </row>
@@ -37210,7 +37923,7 @@
         <v>0.71694860780000003</v>
       </c>
       <c r="T218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.43436324990000003</v>
       </c>
       <c r="AA218" s="2">
@@ -37220,7 +37933,7 @@
         <v>0.54507706560000002</v>
       </c>
       <c r="AC218">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-4.6472494949999998E-2</v>
       </c>
       <c r="BB218" s="2">
@@ -37230,7 +37943,7 @@
         <v>0.42459661859999998</v>
       </c>
       <c r="BD218">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.3994134650000025E-2</v>
       </c>
     </row>
@@ -37242,7 +37955,7 @@
         <v>0.72927024689999997</v>
       </c>
       <c r="T219">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46012740469999996</v>
       </c>
       <c r="AA219" s="2">
@@ -37252,7 +37965,7 @@
         <v>0.63418679</v>
       </c>
       <c r="AC219">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.13338008130000001</v>
       </c>
       <c r="BB219" s="2">
@@ -37262,7 +37975,7 @@
         <v>0.72051284120000003</v>
       </c>
       <c r="BD219">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.22443985115000001</v>
       </c>
     </row>
@@ -37274,7 +37987,7 @@
         <v>0.26914282779999998</v>
       </c>
       <c r="T220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46012728629999999</v>
       </c>
       <c r="AA220" s="2">
@@ -37284,7 +37997,7 @@
         <v>0.36742396980000003</v>
       </c>
       <c r="AC220">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13338153375</v>
       </c>
       <c r="BB220" s="2">
@@ -37294,7 +38007,7 @@
         <v>0.58698101790000001</v>
       </c>
       <c r="BD220">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-9.0601727150000005E-2</v>
       </c>
     </row>
@@ -37306,7 +38019,7 @@
         <v>0.72927049529999999</v>
       </c>
       <c r="T221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46012835209999997</v>
       </c>
       <c r="AA221" s="2">
@@ -37316,7 +38029,7 @@
         <v>0.63418585829999996</v>
       </c>
       <c r="AC221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.13338083309999998</v>
       </c>
       <c r="BB221" s="2">
@@ -37326,7 +38039,7 @@
         <v>0.72123613860000002</v>
       </c>
       <c r="BD221">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.2250229017</v>
       </c>
     </row>
@@ -37338,7 +38051,7 @@
         <v>0.26914249489999997</v>
       </c>
       <c r="T222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.46012765369999997</v>
       </c>
       <c r="AA222" s="2">
@@ -37348,7 +38061,7 @@
         <v>0.36742711210000001</v>
       </c>
       <c r="AC222">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.13337826279999998</v>
       </c>
       <c r="BB222" s="2">
@@ -37358,7 +38071,7 @@
         <v>0.58641518500000001</v>
       </c>
       <c r="BD222">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-8.9924318400000008E-2</v>
       </c>
     </row>
@@ -37370,7 +38083,7 @@
         <v>0.17581732589999999</v>
       </c>
       <c r="T223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.6505348004</v>
       </c>
       <c r="AA223" s="2">
@@ -37380,7 +38093,7 @@
         <v>0.22234188160000001</v>
       </c>
       <c r="AC223">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.28560734980000002</v>
       </c>
     </row>
@@ -37392,7 +38105,7 @@
         <v>0.82635201820000004</v>
       </c>
       <c r="T224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.65053460110000005</v>
       </c>
       <c r="AA224" s="2">
@@ -37402,11 +38115,14 @@
         <v>0.79355617270000001</v>
       </c>
       <c r="AC224">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.28560680174999997</v>
       </c>
+      <c r="BB224" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="225" spans="18:29" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="225" spans="18:61" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R225" s="2">
         <v>0.82635214290000003</v>
       </c>
@@ -37414,7 +38130,7 @@
         <v>0.1758172063</v>
       </c>
       <c r="T225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.65053493660000006</v>
       </c>
       <c r="AA225" s="2">
@@ -37424,11 +38140,35 @@
         <v>0.22234146639999999</v>
       </c>
       <c r="AC225">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0.28560852345000004</v>
       </c>
+      <c r="BB225">
+        <v>-0.220211787647528</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>2.1267612477175402E-2</v>
+      </c>
+      <c r="BD225" s="1">
+        <v>-4.8417920232314601E-2</v>
+      </c>
+      <c r="BE225" s="1">
+        <v>-2.2232268373595598E-2</v>
+      </c>
+      <c r="BF225" s="1">
+        <v>-2.5674264295183699E-2</v>
+      </c>
+      <c r="BG225" s="1">
+        <v>-4.3490627658100002E-2</v>
+      </c>
+      <c r="BH225" s="1">
+        <v>-5.2567964875059901E-2</v>
+      </c>
+      <c r="BI225" s="1">
+        <v>9.3550827180745894E-2</v>
+      </c>
     </row>
-    <row r="226" spans="18:29" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="18:61" ht="16.5" x14ac:dyDescent="0.2">
       <c r="R226" s="2">
         <v>0.17581737180000001</v>
       </c>
@@ -37436,7 +38176,7 @@
         <v>0.82635199849999996</v>
       </c>
       <c r="T226">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.65053462669999995</v>
       </c>
       <c r="AA226" s="2">
@@ -37446,8 +38186,324 @@
         <v>0.79355775959999997</v>
       </c>
       <c r="AC226">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-0.28560754664999999</v>
+      </c>
+      <c r="BB226" s="1">
+        <v>-9.3973992568154294E-2</v>
+      </c>
+      <c r="BC226" s="1">
+        <v>5.36829788766362E-2</v>
+      </c>
+      <c r="BD226" s="1">
+        <v>4.2925021095963703E-2</v>
+      </c>
+      <c r="BE226" s="1">
+        <v>2.5973758795708901E-2</v>
+      </c>
+      <c r="BF226" s="1">
+        <v>2.3483879197280299E-2</v>
+      </c>
+      <c r="BG226" s="1">
+        <v>4.9154624079906999E-2</v>
+      </c>
+      <c r="BH226" s="1">
+        <v>-2.16732750281999E-2</v>
+      </c>
+      <c r="BI226">
+        <v>0.22150881319295199</v>
+      </c>
+    </row>
+    <row r="227" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="BB227">
+        <v>-0.22045323600623601</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>2.0283044742248499E-2</v>
+      </c>
+      <c r="BD227" s="1">
+        <v>-4.8788597124394699E-2</v>
+      </c>
+      <c r="BE227" s="1">
+        <v>-2.3406125417043702E-2</v>
+      </c>
+      <c r="BF227" s="1">
+        <v>-2.57214606418819E-2</v>
+      </c>
+      <c r="BG227" s="1">
+        <v>-4.2302202242557999E-2</v>
+      </c>
+      <c r="BH227" s="1">
+        <v>-5.35563561629342E-2</v>
+      </c>
+      <c r="BI227" s="1">
+        <v>9.3944871040817293E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="R228" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB228" s="1">
+        <v>-9.3038909778494494E-2</v>
+      </c>
+      <c r="BC228" s="1">
+        <v>5.3408421592671701E-2</v>
+      </c>
+      <c r="BD228" s="1">
+        <v>4.1812209912420101E-2</v>
+      </c>
+      <c r="BE228" s="1">
+        <v>2.56578081346602E-2</v>
+      </c>
+      <c r="BF228" s="1">
+        <v>2.1633713200714399E-2</v>
+      </c>
+      <c r="BG228" s="1">
+        <v>4.8590163625633197E-2</v>
+      </c>
+      <c r="BH228" s="1">
+        <v>-2.0308376340148201E-2</v>
+      </c>
+      <c r="BI228">
+        <v>0.218939617246181</v>
+      </c>
+    </row>
+    <row r="229" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="R229">
+        <v>0.32485600296977701</v>
+      </c>
+      <c r="S229">
+        <v>-0.12982874691900101</v>
+      </c>
+      <c r="T229">
+        <v>0.113687940021751</v>
+      </c>
+      <c r="U229" s="1">
+        <v>2.0865080345128101E-2</v>
+      </c>
+      <c r="V229" s="1">
+        <v>4.2927160814348303E-2</v>
+      </c>
+      <c r="W229" s="1">
+        <v>-1.8867540012824601E-3</v>
+      </c>
+      <c r="X229">
+        <v>0.15867723771706099</v>
+      </c>
+      <c r="Y229">
+        <v>-0.25331891779875398</v>
+      </c>
+      <c r="AA229">
+        <v>0.26233956094816901</v>
+      </c>
+      <c r="AB229" s="1">
+        <v>-7.5358295131211395E-2</v>
+      </c>
+      <c r="AC229" s="1">
+        <v>-2.5499822080323E-2</v>
+      </c>
+      <c r="AD229" s="1">
+        <v>5.75976033354988E-2</v>
+      </c>
+      <c r="AE229" s="1">
+        <v>-5.9396091184325199E-2</v>
+      </c>
+      <c r="AF229" s="1">
+        <v>4.6565304303584597E-3</v>
+      </c>
+      <c r="AG229" s="1">
+        <v>7.7917814540231001E-2</v>
+      </c>
+      <c r="AH229">
+        <v>-0.253308137052213</v>
+      </c>
+    </row>
+    <row r="230" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="R230">
+        <v>-0.32535951767473498</v>
+      </c>
+      <c r="S230">
+        <v>0.12996669186271501</v>
+      </c>
+      <c r="T230">
+        <v>-0.11480460454701399</v>
+      </c>
+      <c r="U230" s="1">
+        <v>-2.0589168160619599E-2</v>
+      </c>
+      <c r="V230" s="1">
+        <v>-4.2112677104966002E-2</v>
+      </c>
+      <c r="W230" s="1">
+        <v>1.77358854798209E-3</v>
+      </c>
+      <c r="X230">
+        <v>-0.159961304353194</v>
+      </c>
+      <c r="Y230">
+        <v>0.25313476529457102</v>
+      </c>
+      <c r="AA230">
+        <v>-0.25727382000314802</v>
+      </c>
+      <c r="AB230" s="1">
+        <v>7.7218850962987903E-2</v>
+      </c>
+      <c r="AC230" s="1">
+        <v>1.3625301939910199E-2</v>
+      </c>
+      <c r="AD230" s="1">
+        <v>-5.8103134934695697E-2</v>
+      </c>
+      <c r="AE230" s="1">
+        <v>5.8730871537158703E-2</v>
+      </c>
+      <c r="AF230" s="1">
+        <v>-1.7737531596176699E-2</v>
+      </c>
+      <c r="AG230" s="1">
+        <v>-7.8593458170231195E-2</v>
+      </c>
+      <c r="AH230">
+        <v>0.260131283724305</v>
+      </c>
+    </row>
+    <row r="231" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="R231">
+        <v>0.32645488965717301</v>
+      </c>
+      <c r="S231">
+        <v>-0.13112030091941199</v>
+      </c>
+      <c r="T231">
+        <v>0.11393478695706299</v>
+      </c>
+      <c r="U231" s="1">
+        <v>2.2986241053857302E-2</v>
+      </c>
+      <c r="V231" s="1">
+        <v>4.3975521177669202E-2</v>
+      </c>
+      <c r="W231" s="1">
+        <v>-4.2807061260948798E-3</v>
+      </c>
+      <c r="X231">
+        <v>0.16272944683825599</v>
+      </c>
+      <c r="Y231">
+        <v>-0.254243116032284</v>
+      </c>
+      <c r="AA231">
+        <v>0.25358766782616998</v>
+      </c>
+      <c r="AB231" s="1">
+        <v>-7.5455894829760298E-2</v>
+      </c>
+      <c r="AC231" s="1">
+        <v>-3.7157378204899999E-3</v>
+      </c>
+      <c r="AD231" s="1">
+        <v>5.7746504826389503E-2</v>
+      </c>
+      <c r="AE231" s="1">
+        <v>-5.8110917519650598E-2</v>
+      </c>
+      <c r="AF231" s="1">
+        <v>2.5635909244114099E-2</v>
+      </c>
+      <c r="AG231" s="1">
+        <v>7.2672705185653302E-2</v>
+      </c>
+      <c r="AH231">
+        <v>-0.26283216367794399</v>
+      </c>
+    </row>
+    <row r="232" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="R232">
+        <v>-0.32646818390501298</v>
+      </c>
+      <c r="S232">
+        <v>0.13328011604437501</v>
+      </c>
+      <c r="T232">
+        <v>-0.115191524026081</v>
+      </c>
+      <c r="U232" s="1">
+        <v>-2.4435528872198999E-2</v>
+      </c>
+      <c r="V232" s="1">
+        <v>-4.2411749430435797E-2</v>
+      </c>
+      <c r="W232" s="1">
+        <v>4.1427734162306998E-3</v>
+      </c>
+      <c r="X232">
+        <v>-0.15998723276027299</v>
+      </c>
+      <c r="Y232">
+        <v>0.25260778991334498</v>
+      </c>
+      <c r="AA232">
+        <v>-0.25786263599893899</v>
+      </c>
+      <c r="AB232" s="1">
+        <v>7.3530478792967896E-2</v>
+      </c>
+      <c r="AC232" s="1">
+        <v>1.67154928357101E-2</v>
+      </c>
+      <c r="AD232" s="1">
+        <v>-5.84148199218439E-2</v>
+      </c>
+      <c r="AE232" s="1">
+        <v>6.0026470997122099E-2</v>
+      </c>
+      <c r="AF232" s="1">
+        <v>-1.23044104156946E-2</v>
+      </c>
+      <c r="AG232" s="1">
+        <v>-7.5011986502159594E-2</v>
+      </c>
+      <c r="AH232">
+        <v>0.25684580971198101</v>
+      </c>
+    </row>
+    <row r="233" spans="18:61" x14ac:dyDescent="0.2">
+      <c r="R233">
+        <f>ABS(R232)</f>
+        <v>0.32646818390501298</v>
+      </c>
+      <c r="S233">
+        <f t="shared" ref="S233:Y233" si="24">ABS(S232)</f>
+        <v>0.13328011604437501</v>
+      </c>
+      <c r="T233">
+        <f t="shared" si="24"/>
+        <v>0.115191524026081</v>
+      </c>
+      <c r="U233">
+        <f t="shared" si="24"/>
+        <v>2.4435528872198999E-2</v>
+      </c>
+      <c r="V233">
+        <f t="shared" si="24"/>
+        <v>4.2411749430435797E-2</v>
+      </c>
+      <c r="W233">
+        <f t="shared" si="24"/>
+        <v>4.1427734162306998E-3</v>
+      </c>
+      <c r="X233">
+        <f t="shared" si="24"/>
+        <v>0.15998723276027299</v>
+      </c>
+      <c r="Y233">
+        <f t="shared" si="24"/>
+        <v>0.25260778991334498</v>
       </c>
     </row>
   </sheetData>

--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 6-7-2018.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 6-7-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE2C8311-CFE1-4D21-9C9A-08D7D5773026}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4159AE-5A76-4CFF-9EEB-3CDAE7995BC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5696,6 +5696,65 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DET 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$232:$AH$232</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>-0.25786263599893899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3530478792967896E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.67154928357101E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.84148199218439E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0026470997122099E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.23044104156946E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.5011986502159594E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.25684580971198101</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B43E-4F52-8A1B-C0A4C38599C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5771,72 +5830,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-765B-4841-A041-80AF18BB150C}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v>DET 20</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$AA$232:$AH$232</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>-0.25786263599893899</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>7.3530478792967896E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.67154928357101E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>-5.84148199218439E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6.0026470997122099E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>-1.23044104156946E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>-7.5011986502159594E-2</c:v>
-                      </c:pt>
-                      <c:pt idx="7" formatCode="General">
-                        <c:v>0.25684580971198101</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-B43E-4F52-8A1B-C0A4C38599C4}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -23557,16 +23550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23701,16 +23694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>576261</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23881,16 +23874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23954,15 +23947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:colOff>42861</xdr:colOff>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23989,16 +23982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>119060</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>202</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24025,15 +24018,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -24399,8 +24392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN64" sqref="BN64"/>
+    <sheetView tabSelected="1" topLeftCell="AU37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ55" sqref="AZ55:BO55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36644,36 +36637,36 @@
         <v>0.32802270112889798</v>
       </c>
       <c r="AA184">
-        <f>ABS(AA183)</f>
-        <v>0.27069715379482101</v>
+        <f>(ABS(AA180)+ABS(AA181)+ABS(AA182)+ABS(AA183) )/4</f>
+        <v>0.27045134748621225</v>
       </c>
       <c r="AB184">
-        <f t="shared" ref="AB184:AH184" si="17">ABS(AB183)</f>
-        <v>0.15565396609264201</v>
+        <f t="shared" ref="AB184:AH184" si="17">(ABS(AB180)+ABS(AB181)+ABS(AB182)+ABS(AB183) )/4</f>
+        <v>0.15577914037900825</v>
       </c>
       <c r="AC184">
         <f t="shared" si="17"/>
-        <v>2.59016510254933E-2</v>
+        <v>2.7637669243054948E-2</v>
       </c>
       <c r="AD184">
         <f t="shared" si="17"/>
-        <v>3.3254484139765797E-2</v>
+        <v>3.351015907687642E-2</v>
       </c>
       <c r="AE184">
         <f t="shared" si="17"/>
-        <v>5.5174684753347396E-3</v>
+        <v>6.0388408621078159E-3</v>
       </c>
       <c r="AF184">
         <f t="shared" si="17"/>
-        <v>9.5042963730787897E-2</v>
+        <v>9.5577264174773496E-2</v>
       </c>
       <c r="AG184">
         <f t="shared" si="17"/>
-        <v>0.137489001330278</v>
+        <v>0.13591923773025899</v>
       </c>
       <c r="AH184">
         <f t="shared" si="17"/>
-        <v>0.31513761685340902</v>
+        <v>0.3150685452943055</v>
       </c>
       <c r="BG184" s="1"/>
       <c r="BU184">
